--- a/Disertation Bibliography .xlsx
+++ b/Disertation Bibliography .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camed\OneDrive\Documents\GitHub\Disertation_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F5C047-8B07-46F6-8E61-315B0E3DF3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987BA6B3-D1CC-4F4C-A43F-4661C965C288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA9A4906-27B9-443F-ABF8-51DF8D6D4076}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>Accessibility/usability</t>
   </si>
@@ -77,36 +77,15 @@
     <t>Overview and Comparative Analysis of Game Engines for Desktop and Mobile Devices | Repository of Scientific Research RUOMO | Ιδρυματικό Αποθετήριο Ακαδημαϊκής Έρευνας RUOMO</t>
   </si>
   <si>
-    <t>https://dl.acm.org/doi/abs/10.1145/2460999.2461004 - What do game developers expect from development and design tools?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dl.digra.org/index.php/dl/article/view/606 - Game design tools: Time to evaluate </t>
-  </si>
-  <si>
     <t>https://www.sbgames.org/sbgames2013/proceedings/artedesign/33-dt-paper.pdf - Requirements for game design tools</t>
   </si>
   <si>
-    <t>https://link.springer.com/chapter/10.1007/978-3-642-41106-9_3 - A Systematic Review of Game Design Methods and Tools</t>
-  </si>
-  <si>
-    <t>https://repository.gatech.edu/entities/publication/be9e2349-396e-4b7a-bc07-037983ac6e9b - Representing and reasoning about videogame mechanics for automated design support</t>
-  </si>
-  <si>
-    <t>https://ieeexplore.ieee.org/abstract/document/9231863 - Practical Game Design Tool: State Explorer</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://dl.digra.org/index.php/dl/article/view/1077 - A Taxonomy of Game Engines and the Tools that Drive the Industry </t>
   </si>
   <si>
-    <t>https://ieeexplore.ieee.org/abstract/document/8686138 - Video Game Development in a Rush: A Survey of the Global Game Jam Participants</t>
-  </si>
-  <si>
     <t>https://learning.oreilly.com/library/view/procedural-generation-in/9781484287958/?ar%2F%3Femail=%5Eu Procedural Generation in Godot: Learn to Generate Enjoyable Content for Your Games</t>
   </si>
   <si>
-    <t>https://ebookcentral.proquest.com/lib/staffordshire/detail.action?pq-origsite=primo&amp;docID=4875448 Procedural Generation in Game Design</t>
-  </si>
-  <si>
     <t>Realistic and Textured Terrain Generation using GANs | Proceedings of the 16th ACM SIGGRAPH European Conference on Visual Media Production – Realistic and Textured Terrain Generation using GANs</t>
   </si>
   <si>
@@ -140,40 +119,31 @@
     <t>https://ieeexplore.ieee.org/document/10336281</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=JBp8zvLVsgg – GDC, Procedural World Generation of Far Cry 5</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://citeseerx.ist.psu.edu/document?repid=rep1&amp;type=pdf&amp;doi=5961c577478f21707dad53905362e0ec4e6ec644 </t>
   </si>
   <si>
     <t>Testing</t>
   </si>
   <si>
-    <t>https://link.springer.com/chapter/10.1007/978-3-642-21708-1_70 - Serious Games Usability Testing: How to Ensure Proper Usability, Playability, and Effectiveness</t>
-  </si>
-  <si>
     <t>Terrain</t>
   </si>
   <si>
-    <t>https://www.diva-portal.org/smash/record.jsf?pid=diva2%3A1447408&amp;dswid=-9862 Real Time Integrated Tools for Video Game Development: a usability study</t>
-  </si>
-  <si>
-    <t>https://pure.hva.nl/ws/portalfiles/portal/1564708/Diversity_Scale.pdf Diversity scale: an evaluation algorithm for terrain generators</t>
-  </si>
-  <si>
     <t>https://www.cs.purdue.edu/cgvlab/www/resources/papers/Vanek-IEEE_Computer_Graphics_and_Applications-2011-Large-Scale_Physics-Based_Terrain_Editing_Using_Adaptive_Tiles_o.pdf Large-Scale Physics-Based Terrain Editing</t>
   </si>
   <si>
     <t>https://ieeexplore.ieee.org/abstract/document/8904489 Usability of Development Tools: A CASE-Study</t>
   </si>
   <si>
-    <t>https://link.springer.com/article/10.1007/s11219-014-9266-y - A model-driven approach for usability engineering of interactive systems</t>
-  </si>
-  <si>
-    <t>https://ieeexplore.ieee.org/abstract/document/4756377 - UMDD: User Model Driven Software Development</t>
-  </si>
-  <si>
-    <t>https://ieeexplore.ieee.org/abstract/document/9514802 - A Real-Time Sculpting and Terrain Generation System for Interactive Content Creation</t>
+    <t>Questionnaires</t>
+  </si>
+  <si>
+    <t>August 2024: Volume 19, Issue 4 - JUXJUX - The Journal of User Experience</t>
+  </si>
+  <si>
+    <t>JUS Journal Template</t>
+  </si>
+  <si>
+    <t>(PDF) Measuring Perceived Usability: The CSUQ, SUS, and UMUX</t>
   </si>
   <si>
     <t xml:space="preserve">Usability of Development Tools: A CASE-Study
@@ -182,8 +152,190 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Overview and Comparative Analysis for Game Engines for Desktop and Movile Devices
+"people involved in the design and development of serious games come from various
+fields. For example, pedagogists and domain experts with limited, if any, coding skills are involved
+in designing and developing serious games."
+"Game engines expedite the process of developing
+a game through existing templates and assets that can be reused, minimizing or completely
+extinguishing the need to have a deep knowledge of programming."
+</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>5 most value, 1 least value</t>
+  </si>
+  <si>
+    <t>An Introduction to Software Usability
+The subject or focus of software usability has not become a mainstream consideration</t>
+  </si>
+  <si>
+    <t>Accessible Computing -- Past Trends and Future Suggestions: Commentary on “Computers and People with Disabilities”</t>
+  </si>
+  <si>
+    <t>How Do Professionals Who Create Computing
+Technologies Consider Accessibility?
+Research into seeing how many professionals actively consider HCI and UX into their progams</t>
+  </si>
+  <si>
+    <t>Accessibility in Software Practice: A Practitioner’s
+Perspective</t>
+  </si>
+  <si>
+    <t>No Access</t>
+  </si>
+  <si>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s11219-014-9266-y</t>
+  </si>
+  <si>
+    <t>A model-driven approach for usability engineering of interactive systems</t>
+  </si>
+  <si>
+    <t>Procedural Generation in Godot: Learn to Generate Enjoyable Content for Your Games</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/2460999.2461004</t>
+  </si>
+  <si>
+    <t>https://dl.digra.org/index.php/dl/article/view/606</t>
+  </si>
+  <si>
+    <t>Game design tools: Time to evaluate</t>
+  </si>
+  <si>
+    <t>Requirements for game design tools</t>
+  </si>
+  <si>
+    <t>https://books.google.co.uk/books?hl=en&amp;lr=&amp;id=1O71EAAAQBAJ&amp;oi=fnd&amp;pg=PT8&amp;dq=Game+Development+TOols+&amp;ots=sxwM9k9sVX&amp;sig=_OSuYdiTG_Tqb-fBkajTp2gRVQk&amp;redir_esc=y#v=onepage&amp;q=Game%20Development%20TOols&amp;f=false</t>
+  </si>
+  <si>
+    <t>Designing the User Experience of Game Development Tools</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/3365000</t>
+  </si>
+  <si>
+    <t>Model-driven Game Development: A Literature Review</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/978-3-642-41106-9_3</t>
+  </si>
+  <si>
+    <t>A Systematic Review of Game Design Methods and Tools</t>
+  </si>
+  <si>
+    <t>https://repository.gatech.edu/entities/publication/be9e2349-396e-4b7a-bc07-037983ac6e9b</t>
+  </si>
+  <si>
+    <t>Representing and reasoning about videogame mechanics for automated design support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/9231863 </t>
+  </si>
+  <si>
+    <t>Practical Game Design Tool: State Explorer</t>
+  </si>
+  <si>
+    <t>https://www.diva-portal.org/smash/record.jsf?pid=diva2%3A1447408&amp;dswid=-9862</t>
+  </si>
+  <si>
+    <t>Real Time Integrated Tools for Video Game Development: a usability study</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/4756377</t>
+  </si>
+  <si>
+    <t>UMDD: User Model Driven Software Development</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8686138</t>
+  </si>
+  <si>
+    <t>Video Game Development in a Rush: A Survey of the Global Game Jam Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ebookcentral.proquest.com/lib/staffordshire/detail.action?pq-origsite=primo&amp;docID=4875448 </t>
+  </si>
+  <si>
+    <t>Procedural Generation in Game Design</t>
+  </si>
+  <si>
+    <t>Realistic and Textured Terrain Generation using GANs</t>
+  </si>
+  <si>
+    <t>Algorithms and Approaches for Procedural Terrain Generation - A Brief Review of Current Techniques</t>
+  </si>
+  <si>
+    <t>A Survey of Procedural Content Generation Techniques Suitable to Game Development</t>
+  </si>
+  <si>
+    <t>The Usage of PCG Techniques Within Different Game Genres</t>
+  </si>
+  <si>
+    <t>Procedural Generation of 3D Planetary-Scale Terrains</t>
+  </si>
+  <si>
+    <t>Procedural Generation of 3D Canyons</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JBp8zvLVsgg</t>
+  </si>
+  <si>
+    <t>Procedural World Generation of Far Cry 5 - GDC</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/9514802</t>
+  </si>
+  <si>
+    <t>A Real-Time Sculpting and Terrain Generation System for Interactive Content Creation</t>
+  </si>
+  <si>
+    <t>Serious Games Usability Testing: How to Ensure Proper Usability, Playability, and Effectiveness</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/978-3-642-21708-1_70</t>
+  </si>
+  <si>
+    <t>https://pure.hva.nl/ws/portalfiles/portal/1564708/Diversity_Scale.pdf</t>
+  </si>
+  <si>
+    <t>Diversity scale: an evaluation algorithm for terrain generators</t>
+  </si>
+  <si>
+    <t>Large-Scale_Physics-Based_Terrain_Editing_Using_Adaptive_Tiles</t>
+  </si>
+  <si>
+    <t>Anderson, E. F. (2011, 2011). A Classification of Scripting Systems for Entertainment and Serious Computer Games.Paper presented at the 2011 Third International Conference on Games and Virtual Worlds for Serious Applications</t>
+  </si>
+  <si>
+    <t>Anderson, E. F., Engel, S., Comninos, P., &amp; McLoughlin, L. (2008). The case for research in game engine architecture.Paper presented at the Proceedings of the 2008 Conference on Future Play Research, Play, Share -Future Play '08.</t>
+  </si>
+  <si>
+    <t>A Taxonomy of Game Engines and the Tools that Drive the Industry
+The aim of this paper is to define clear bounaries between the components in a game engine and the rest of the production tools used in the game development pipeline. They realised their question was the wrong question to ask and spent the paper defining the tools of a game production pipeline.
+This applies to my research as it shows what tools or needs are met by the existing game engines and states that "everything should not or could not be supported in a general purpose engine." which supports the existence of my research and the creation of new external tools.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toftedahl, M., Backlund, P., &amp; Engström, H. (2018). Localization from an Indie Game Production Perspective: Why, When and How?Paper presented at the DiGRA '18 -Proceedings of the 2018 DiGRA International Conference: The Game is the Message, Torino, Italy. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Engineering Accessible Software
- </t>
+</t>
+  </si>
+  <si>
+    <t>Why Software is Not Accessible: Technology Professionals' Perspectives and Challenges
+This research looks into how "technology professionalss include accessibility in design and development and what technologies they face"
+Their findings show that "formal education inadequaately preparent them to handle accessibility challenges across the software development lifecycle along with "inadequate accessibility tools and resources" In their research a large portion of developers and designers with more than 10 years of experience have less than 2 years of experience in accessibility. It also seems a large portion of accessible research and a push for accessibility is focused on webpages which makes sense but means there is a lack of substance in accessibility in the space of developers and people more tech savy. They concluded "industry professionals do not have the capacity to address accessibility" and such the research and the development of accessible tools is required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do game developers expect from development and design tools?
+The goal of this paper is to understand the expectations attatched to the tools used in the game development practice. They looked into new start ups and established stuidos. Their research resulted in the understanding that game development tools are primarily used to test concepts and allow for prototyping. Along with this the motivation for these tools creation were often related to the amount of bugs or the user interface design.  these tools are expected to be able to adapt to changes during the development process. use this to show the direction and expectation for the capabilities of the program.
+</t>
   </si>
 </sst>
 </file>
@@ -243,11 +395,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -261,6 +410,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -598,299 +754,536 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075AA31E-6108-44F3-8364-BAB4120DCED6}">
-  <dimension ref="A2:B51"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.28515625" customWidth="1"/>
+    <col min="2" max="2" width="73" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="63.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C8" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B36" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B51" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="C52" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B55" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B59" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-    </row>
-    <row r="45" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A45" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>40</v>
+      <c r="C60" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://ieeexplore.ieee.org/document/10336281" xr:uid="{35D3E676-0C76-4B2E-8F3F-3917F6D8F17A}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://learning.oreilly.com/library/view/engineering-software-for/9780735642102/?ar%2F%3Femail=%5Eu" xr:uid="{87E58309-A377-4EBE-A41A-4DD19141963A}"/>
-    <hyperlink ref="A5" r:id="rId3" display="https://dl-acm-org.ezproxy.staffs.ac.uk/doi/abs/10.1145/3334480.3383103" xr:uid="{5B2CFEA9-03E3-4986-BDA0-D0D30F8FB92B}"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://learning.oreilly.com/library/view/developing-inclusive-mobile/9781484258149/?ar%2F%3Femail=%5Eu" xr:uid="{8ABB5587-0C82-4894-A23C-57FB81D27579}"/>
-    <hyperlink ref="A7" r:id="rId5" display="https://www-sciencedirect-com.ezproxy.staffs.ac.uk/science/article/pii/S0953543805000597" xr:uid="{BFA735BF-073A-44A1-A88A-7366C1EDE5B3}"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://hci.ece.upatras.gr/wp-content/uploads/publications/2001(C44)An Introduction to Software Usability.pdf" xr:uid="{F1F03FF7-704E-4E23-B702-5BD20485DCF3}"/>
-    <hyperlink ref="A16" r:id="rId7" display="https://ruomoplus.lib.uom.gr/handle/8000/1120" xr:uid="{D37A38EE-A294-4513-AC16-8E907121E64B}"/>
-    <hyperlink ref="A21" r:id="rId8" display="https://dl.acm.org/doi/abs/10.1145/2460999.2461004" xr:uid="{A370EBCA-1388-4E3C-AEA1-2B1B55BCC5FB}"/>
-    <hyperlink ref="A22" r:id="rId9" xr:uid="{69E12D8E-BD5B-443C-8B6A-E432823569A5}"/>
-    <hyperlink ref="A23" r:id="rId10" display="https://www.sbgames.org/sbgames2013/proceedings/artedesign/33-dt-paper.pdf" xr:uid="{695767F3-D37F-46BA-9A46-0C8DCEF53D4C}"/>
-    <hyperlink ref="A24" r:id="rId11" display="https://link.springer.com/chapter/10.1007/978-3-642-41106-9_3" xr:uid="{12958902-FC4C-4CA1-8FA9-F8A09651D205}"/>
-    <hyperlink ref="A25" r:id="rId12" display="https://repository.gatech.edu/entities/publication/be9e2349-396e-4b7a-bc07-037983ac6e9b" xr:uid="{E9F4BCD7-33AD-47F9-8E08-210A23B20FE4}"/>
-    <hyperlink ref="A26" r:id="rId13" display="https://ieeexplore.ieee.org/abstract/document/9231863" xr:uid="{90E6B17B-3982-48BB-ABAF-D03EA252E83A}"/>
-    <hyperlink ref="A17" r:id="rId14" display="https://dl.digra.org/index.php/dl/article/view/1077" xr:uid="{9749C9B7-FF65-47FE-87E9-160641E87809}"/>
-    <hyperlink ref="A31" r:id="rId15" display="https://ieeexplore.ieee.org/abstract/document/8686138" xr:uid="{2539EF7B-9C68-421C-BB9A-6C08B36CCC63}"/>
-    <hyperlink ref="A18" r:id="rId16" display="https://learning.oreilly.com/library/view/procedural-generation-in/9781484287958/?ar%2F%3Femail=%5Eu" xr:uid="{A96A5B27-4A76-43E8-A670-21685FC08DA7}"/>
-    <hyperlink ref="A34" r:id="rId17" display="https://ebookcentral.proquest.com/lib/staffordshire/detail.action?pq-origsite=primo&amp;docID=4875448" xr:uid="{82C53B98-A1CC-40DE-B253-38D3DC8D3067}"/>
-    <hyperlink ref="A35" r:id="rId18" display="https://dl.acm.org/doi/abs/10.1145/3359998.3369407" xr:uid="{D1981623-F80E-4B37-A061-32A2A41BA51B}"/>
-    <hyperlink ref="A36" r:id="rId19" display="https://ieeexplore.ieee.org/abstract/document/7590336" xr:uid="{F9021CE5-7E82-4CDD-A74D-5D29FCF1E02E}"/>
-    <hyperlink ref="A37" r:id="rId20" display="https://citeseerx.ist.psu.edu/document?repid=rep1&amp;type=pdf&amp;doi=5961c577478f21707dad53905362e0ec4e6ec644" xr:uid="{B583103F-F3DD-482C-8CEF-BB227431B8C9}"/>
-    <hyperlink ref="A38" r:id="rId21" display="https://ieeexplore.ieee.org/abstract/document/6363215" xr:uid="{F992D754-64D8-4508-B135-D0E246087E14}"/>
-    <hyperlink ref="A39" r:id="rId22" display="https://www.diva-portal.org/smash/record.jsf?pid=diva2%3A1604550&amp;dswid=9705" xr:uid="{0BB3B4B0-2917-4FB8-B2BC-4C30E5FA2C65}"/>
-    <hyperlink ref="A40" r:id="rId23" display="https://ieeexplore.ieee.org/abstract/document/8863868" xr:uid="{D256FF97-ECF0-4089-BBD7-36496D3139F1}"/>
-    <hyperlink ref="A41" r:id="rId24" display="https://ieeexplore.ieee.org/abstract/document/6915296" xr:uid="{7424D0FC-C4C6-4A7F-B9D8-8A0E0F8087B0}"/>
-    <hyperlink ref="A9" r:id="rId25" xr:uid="{90D3DAEC-C1D3-4652-B6BC-862C8772E69F}"/>
-    <hyperlink ref="A10" r:id="rId26" xr:uid="{8C9A0D6C-715A-420E-B144-FDEEB374B704}"/>
-    <hyperlink ref="A42" r:id="rId27" display="https://www.youtube.com/watch?v=JBp8zvLVsgg" xr:uid="{8DB48E24-302D-4FF0-89FD-B3B72B9D3A47}"/>
-    <hyperlink ref="A43" r:id="rId28" xr:uid="{C6350575-6165-435A-AEFA-688801B93533}"/>
-    <hyperlink ref="A50" r:id="rId29" xr:uid="{A1AE575D-4F0B-4646-848F-E8A0C6E7EA87}"/>
-    <hyperlink ref="A27" r:id="rId30" xr:uid="{C8932CC3-66BD-47AA-8E19-216DE695EAD4}"/>
-    <hyperlink ref="A51" r:id="rId31" xr:uid="{503B1E9C-298C-4F4F-AB47-1FCD2FF1BBD8}"/>
-    <hyperlink ref="A46" r:id="rId32" xr:uid="{A10B9E02-A70E-42DE-AC79-9E4730C31746}"/>
-    <hyperlink ref="A13" r:id="rId33" xr:uid="{834F2E38-8437-4D35-BD8D-92033B035648}"/>
-    <hyperlink ref="A14" r:id="rId34" xr:uid="{47E473B3-2415-4842-85D9-C68B8A15A8F5}"/>
-    <hyperlink ref="A28" r:id="rId35" xr:uid="{8B7672EC-4885-4C51-BA36-0566628DA879}"/>
-    <hyperlink ref="A47" r:id="rId36" xr:uid="{5F731E9E-A167-4BA9-8B8B-050D0E8DE532}"/>
-    <hyperlink ref="A12" r:id="rId37" xr:uid="{F6A3EBC5-6B79-4A46-91F2-561876BE640B}"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://ieeexplore.ieee.org/document/10336281" xr:uid="{35D3E676-0C76-4B2E-8F3F-3917F6D8F17A}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://learning.oreilly.com/library/view/engineering-software-for/9780735642102/?ar%2F%3Femail=%5Eu" xr:uid="{87E58309-A377-4EBE-A41A-4DD19141963A}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://dl-acm-org.ezproxy.staffs.ac.uk/doi/abs/10.1145/3334480.3383103" xr:uid="{5B2CFEA9-03E3-4986-BDA0-D0D30F8FB92B}"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://learning.oreilly.com/library/view/developing-inclusive-mobile/9781484258149/?ar%2F%3Femail=%5Eu" xr:uid="{8ABB5587-0C82-4894-A23C-57FB81D27579}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://www-sciencedirect-com.ezproxy.staffs.ac.uk/science/article/pii/S0953543805000597" xr:uid="{BFA735BF-073A-44A1-A88A-7366C1EDE5B3}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://hci.ece.upatras.gr/wp-content/uploads/publications/2001(C44)An Introduction to Software Usability.pdf" xr:uid="{F1F03FF7-704E-4E23-B702-5BD20485DCF3}"/>
+    <hyperlink ref="B19" r:id="rId7" display="https://ruomoplus.lib.uom.gr/handle/8000/1120" xr:uid="{D37A38EE-A294-4513-AC16-8E907121E64B}"/>
+    <hyperlink ref="B24" r:id="rId8" xr:uid="{A370EBCA-1388-4E3C-AEA1-2B1B55BCC5FB}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{69E12D8E-BD5B-443C-8B6A-E432823569A5}"/>
+    <hyperlink ref="B26" r:id="rId10" display="https://www.sbgames.org/sbgames2013/proceedings/artedesign/33-dt-paper.pdf" xr:uid="{695767F3-D37F-46BA-9A46-0C8DCEF53D4C}"/>
+    <hyperlink ref="B27" r:id="rId11" xr:uid="{12958902-FC4C-4CA1-8FA9-F8A09651D205}"/>
+    <hyperlink ref="B28" r:id="rId12" xr:uid="{E9F4BCD7-33AD-47F9-8E08-210A23B20FE4}"/>
+    <hyperlink ref="B29" r:id="rId13" xr:uid="{90E6B17B-3982-48BB-ABAF-D03EA252E83A}"/>
+    <hyperlink ref="B20" r:id="rId14" display="https://dl.digra.org/index.php/dl/article/view/1077" xr:uid="{9749C9B7-FF65-47FE-87E9-160641E87809}"/>
+    <hyperlink ref="B37" r:id="rId15" xr:uid="{2539EF7B-9C68-421C-BB9A-6C08B36CCC63}"/>
+    <hyperlink ref="B21" r:id="rId16" display="https://learning.oreilly.com/library/view/procedural-generation-in/9781484287958/?ar%2F%3Femail=%5Eu" xr:uid="{A96A5B27-4A76-43E8-A670-21685FC08DA7}"/>
+    <hyperlink ref="B40" r:id="rId17" xr:uid="{82C53B98-A1CC-40DE-B253-38D3DC8D3067}"/>
+    <hyperlink ref="B41" r:id="rId18" display="https://dl.acm.org/doi/abs/10.1145/3359998.3369407" xr:uid="{D1981623-F80E-4B37-A061-32A2A41BA51B}"/>
+    <hyperlink ref="B42" r:id="rId19" display="https://ieeexplore.ieee.org/abstract/document/7590336" xr:uid="{F9021CE5-7E82-4CDD-A74D-5D29FCF1E02E}"/>
+    <hyperlink ref="B43" r:id="rId20" display="https://citeseerx.ist.psu.edu/document?repid=rep1&amp;type=pdf&amp;doi=5961c577478f21707dad53905362e0ec4e6ec644" xr:uid="{B583103F-F3DD-482C-8CEF-BB227431B8C9}"/>
+    <hyperlink ref="B44" r:id="rId21" display="https://ieeexplore.ieee.org/abstract/document/6363215" xr:uid="{F992D754-64D8-4508-B135-D0E246087E14}"/>
+    <hyperlink ref="B45" r:id="rId22" display="https://www.diva-portal.org/smash/record.jsf?pid=diva2%3A1604550&amp;dswid=9705" xr:uid="{0BB3B4B0-2917-4FB8-B2BC-4C30E5FA2C65}"/>
+    <hyperlink ref="B46" r:id="rId23" display="https://ieeexplore.ieee.org/abstract/document/8863868" xr:uid="{D256FF97-ECF0-4089-BBD7-36496D3139F1}"/>
+    <hyperlink ref="B47" r:id="rId24" display="https://ieeexplore.ieee.org/abstract/document/6915296" xr:uid="{7424D0FC-C4C6-4A7F-B9D8-8A0E0F8087B0}"/>
+    <hyperlink ref="B9" r:id="rId25" xr:uid="{90D3DAEC-C1D3-4652-B6BC-862C8772E69F}"/>
+    <hyperlink ref="B10" r:id="rId26" xr:uid="{8C9A0D6C-715A-420E-B144-FDEEB374B704}"/>
+    <hyperlink ref="B48" r:id="rId27" xr:uid="{8DB48E24-302D-4FF0-89FD-B3B72B9D3A47}"/>
+    <hyperlink ref="B49" r:id="rId28" xr:uid="{C6350575-6165-435A-AEFA-688801B93533}"/>
+    <hyperlink ref="B56" r:id="rId29" xr:uid="{A1AE575D-4F0B-4646-848F-E8A0C6E7EA87}"/>
+    <hyperlink ref="B30" r:id="rId30" xr:uid="{C8932CC3-66BD-47AA-8E19-216DE695EAD4}"/>
+    <hyperlink ref="B57" r:id="rId31" xr:uid="{503B1E9C-298C-4F4F-AB47-1FCD2FF1BBD8}"/>
+    <hyperlink ref="B52" r:id="rId32" xr:uid="{A10B9E02-A70E-42DE-AC79-9E4730C31746}"/>
+    <hyperlink ref="B13" r:id="rId33" xr:uid="{834F2E38-8437-4D35-BD8D-92033B035648}"/>
+    <hyperlink ref="B14" r:id="rId34" xr:uid="{47E473B3-2415-4842-85D9-C68B8A15A8F5}"/>
+    <hyperlink ref="B31" r:id="rId35" xr:uid="{8B7672EC-4885-4C51-BA36-0566628DA879}"/>
+    <hyperlink ref="B53" r:id="rId36" xr:uid="{5F731E9E-A167-4BA9-8B8B-050D0E8DE532}"/>
+    <hyperlink ref="B12" r:id="rId37" xr:uid="{F6A3EBC5-6B79-4A46-91F2-561876BE640B}"/>
+    <hyperlink ref="B15" r:id="rId38" display="https://uxpajournal.org/" xr:uid="{95A4A98E-A5EF-442E-946D-B3BB705C36C8}"/>
+    <hyperlink ref="B16" r:id="rId39" display="https://uxpajournal.org/wp-content/uploads/sites/7/pdf/JUS_Brooke_February_2013.pdf" xr:uid="{FB8D159B-E59E-4E70-99A4-F77B81B49973}"/>
+    <hyperlink ref="B60" r:id="rId40" display="https://www.researchgate.net/publication/322348620_Measuring_Perceived_Usability_The_CSUQ_SUS_and_UMUX" xr:uid="{DB11859D-B313-4DA7-A495-E3BF73FDFE69}"/>
+    <hyperlink ref="B11" r:id="rId41" xr:uid="{8E91CAD1-F93F-4CDE-8BB7-8BFE95F1B7AB}"/>
+    <hyperlink ref="B33" r:id="rId42" location="v=onepage&amp;q=Game%20Development%20TOols&amp;f=false" xr:uid="{EE0C85CB-CD28-44F7-9813-7087C587AF3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId43"/>
 </worksheet>
 </file>
--- a/Disertation Bibliography .xlsx
+++ b/Disertation Bibliography .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camed\OneDrive\Documents\GitHub\Disertation_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987BA6B3-D1CC-4F4C-A43F-4661C965C288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEF3373-3769-4776-8188-3603897F2D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA9A4906-27B9-443F-ABF8-51DF8D6D4076}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>Accessibility/usability</t>
   </si>
@@ -220,9 +220,6 @@
     <t>https://dl.acm.org/doi/abs/10.1145/3365000</t>
   </si>
   <si>
-    <t>Model-driven Game Development: A Literature Review</t>
-  </si>
-  <si>
     <t>https://link.springer.com/chapter/10.1007/978-3-642-41106-9_3</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
   </si>
   <si>
     <t>https://www.diva-portal.org/smash/record.jsf?pid=diva2%3A1447408&amp;dswid=-9862</t>
-  </si>
-  <si>
-    <t>Real Time Integrated Tools for Video Game Development: a usability study</t>
   </si>
   <si>
     <t>https://ieeexplore.ieee.org/abstract/document/4756377</t>
@@ -335,6 +329,18 @@
   <si>
     <t xml:space="preserve">What do game developers expect from development and design tools?
 The goal of this paper is to understand the expectations attatched to the tools used in the game development practice. They looked into new start ups and established stuidos. Their research resulted in the understanding that game development tools are primarily used to test concepts and allow for prototyping. Along with this the motivation for these tools creation were often related to the amount of bugs or the user interface design.  these tools are expected to be able to adapt to changes during the development process. use this to show the direction and expectation for the capabilities of the program.
+</t>
+  </si>
+  <si>
+    <t>"Exact same study"</t>
+  </si>
+  <si>
+    <t>Real Time Integrated Tools for Video Game Development: a usability study
+This thesis identified a lack of usabilityand quality of life in existing game development tools and aimed and so their aim was to solve these frustrations by "creating effective, functional and user-friendly integrated development tools specialized for the development enviroment". They concluded that the their process of qualative surveys after each development sprint and focusing on discovered usability problems before adding new functionality caused a increase in the average usability and the effectivness of the tool as a hole.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model-driven Game Development: A Literature Review
+"overall goal of game development being “entertaining” or “fun” is unchangeable" talks about existing MDGD papers, This is applicable cause it introduces a potential new approach and audience for the tool as it could be used for prototyping the terrain and enviroments instead of exclusively for development of a final usable terrain.
 </t>
   </si>
 </sst>
@@ -756,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075AA31E-6108-44F3-8364-BAB4120DCED6}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +810,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -872,7 +878,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -938,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -965,7 +971,7 @@
         <v>49</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -995,10 +1001,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1006,10 +1012,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1017,21 +1023,24 @@
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>64</v>
+        <v>92</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1039,21 +1048,21 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -1069,12 +1078,12 @@
     </row>
     <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
@@ -1087,15 +1096,15 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
@@ -1105,10 +1114,10 @@
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1116,7 +1125,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1124,7 +1133,7 @@
         <v>17</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1140,7 +1149,7 @@
         <v>19</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1148,7 +1157,7 @@
         <v>20</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1156,7 +1165,7 @@
         <v>21</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1164,15 +1173,15 @@
         <v>22</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="30" x14ac:dyDescent="0.25">
@@ -1193,15 +1202,15 @@
         <v>30</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
@@ -1211,18 +1220,18 @@
     </row>
     <row r="56" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
@@ -1282,8 +1291,9 @@
     <hyperlink ref="B60" r:id="rId40" display="https://www.researchgate.net/publication/322348620_Measuring_Perceived_Usability_The_CSUQ_SUS_and_UMUX" xr:uid="{DB11859D-B313-4DA7-A495-E3BF73FDFE69}"/>
     <hyperlink ref="B11" r:id="rId41" xr:uid="{8E91CAD1-F93F-4CDE-8BB7-8BFE95F1B7AB}"/>
     <hyperlink ref="B33" r:id="rId42" location="v=onepage&amp;q=Game%20Development%20TOols&amp;f=false" xr:uid="{EE0C85CB-CD28-44F7-9813-7087C587AF3B}"/>
+    <hyperlink ref="B32" r:id="rId43" xr:uid="{556A3CA7-8C3F-4F44-B132-2340823AD1C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId43"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId44"/>
 </worksheet>
 </file>
--- a/Disertation Bibliography .xlsx
+++ b/Disertation Bibliography .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camed\OneDrive\Documents\GitHub\Disertation_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d019386m\Documents\GitHub\Disertation_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEF3373-3769-4776-8188-3603897F2D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463A818E-5431-484D-8B17-482ADD30A729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA9A4906-27B9-443F-ABF8-51DF8D6D4076}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>Accessibility/usability</t>
   </si>
@@ -131,9 +131,6 @@
     <t>https://www.cs.purdue.edu/cgvlab/www/resources/papers/Vanek-IEEE_Computer_Graphics_and_Applications-2011-Large-Scale_Physics-Based_Terrain_Editing_Using_Adaptive_Tiles_o.pdf Large-Scale Physics-Based Terrain Editing</t>
   </si>
   <si>
-    <t>https://ieeexplore.ieee.org/abstract/document/8904489 Usability of Development Tools: A CASE-Study</t>
-  </si>
-  <si>
     <t>Questionnaires</t>
   </si>
   <si>
@@ -144,12 +141,6 @@
   </si>
   <si>
     <t>(PDF) Measuring Perceived Usability: The CSUQ, SUS, and UMUX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usability of Development Tools: A CASE-Study
-"Many of the tools for it, however, are somewhat lacking with respect to usability, which can act as a major obstacle in adopting a model driven approach and impede productivity" 
-Identify that tests for usability within a certain tool or framework has little overlap with other tools.
-</t>
   </si>
   <si>
     <t xml:space="preserve">Overview and Comparative Analysis for Game Engines for Desktop and Movile Devices
@@ -214,9 +205,6 @@
     <t>https://books.google.co.uk/books?hl=en&amp;lr=&amp;id=1O71EAAAQBAJ&amp;oi=fnd&amp;pg=PT8&amp;dq=Game+Development+TOols+&amp;ots=sxwM9k9sVX&amp;sig=_OSuYdiTG_Tqb-fBkajTp2gRVQk&amp;redir_esc=y#v=onepage&amp;q=Game%20Development%20TOols&amp;f=false</t>
   </si>
   <si>
-    <t>Designing the User Experience of Game Development Tools</t>
-  </si>
-  <si>
     <t>https://dl.acm.org/doi/abs/10.1145/3365000</t>
   </si>
   <si>
@@ -250,9 +238,6 @@
     <t>https://ieeexplore.ieee.org/abstract/document/8686138</t>
   </si>
   <si>
-    <t>Video Game Development in a Rush: A Survey of the Global Game Jam Participants</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://ebookcentral.proquest.com/lib/staffordshire/detail.action?pq-origsite=primo&amp;docID=4875448 </t>
   </si>
   <si>
@@ -305,9 +290,6 @@
   </si>
   <si>
     <t>Anderson, E. F. (2011, 2011). A Classification of Scripting Systems for Entertainment and Serious Computer Games.Paper presented at the 2011 Third International Conference on Games and Virtual Worlds for Serious Applications</t>
-  </si>
-  <si>
-    <t>Anderson, E. F., Engel, S., Comninos, P., &amp; McLoughlin, L. (2008). The case for research in game engine architecture.Paper presented at the Proceedings of the 2008 Conference on Future Play Research, Play, Share -Future Play '08.</t>
   </si>
   <si>
     <t>A Taxonomy of Game Engines and the Tools that Drive the Industry
@@ -342,13 +324,41 @@
     <t xml:space="preserve">Model-driven Game Development: A Literature Review
 "overall goal of game development being “entertaining” or “fun” is unchangeable" talks about existing MDGD papers, This is applicable cause it introduces a potential new approach and audience for the tool as it could be used for prototyping the terrain and enviroments instead of exclusively for development of a final usable terrain.
 </t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8904489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usability of Development Tools: A CASE-Study
+"Many of the tools for it, however, are somewhat lacking with respect to usability, which can act as a major obstacle in adopting a model driven approach and impede productivity" 
+Identify that tests for usability within a certain tool or framework has little overlap with other tools.
+This paper states that often research requires these tools as a means to the end to showcase the results of usability so the long term usability and the constant improvement of usability that a commercial tool would undergo is disregarded. They received feedback showing the testers enthusiasm at the development of tools that focus on good usability and deliver the same if not better productivity and user satisfaction.
+</t>
+  </si>
+  <si>
+    <t>futureplay.dvi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The case for research in Game Engine Architecture
+</t>
+  </si>
+  <si>
+    <t>https://www.uxofgametools.com/</t>
+  </si>
+  <si>
+    <t>Designing the User Experience of Game Development Tools
+User Experience pyramid, at minimum it needs to be useful then usable then desirable. A lot of tools only meet the bottom of the pyramid it being useful so the user has to make do because they need the tool even if its a struggle. Useful "good user experience is something that fulfills a need. if a game development tool does not fulfill a need, why does it exist in the first place?" Usable, how efficient is it to use and how easy is it to learn, how well is the user proteccted from making mistakes and how satisfying is it to use. Desirable, often considered not important to the tool but relates to aesthetic and appealing design. Focus on user centered design, identify the target group or the largest user body and develope to those needs e.g. more less technical users than technical users and so you should design for the less technical. A great way for developing usability is watching a user use the software and seeing their workarounds as it shows faults in the program and what the user has figured out to deal with it. User-centered design process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video Game Development in a Rush: A Survey of the Global Game Jam Participants
+The survey determined that a majotity had between 1 to 4 years of experience and less than 1 year of experience. We can take from this that the ability and expertise of the developers were not wide and varied, the fact the majority of people reported positions in software development and in groups the majority of users reported being programmers, this leaves a shortage of ability in the art, modeling and sound fields. supports the existance of a terrain generation and modeling tool as if no one in particular has experience in modeling software or terrain creation a tool allows them to produce one without the time sync of learning a new skill set. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +389,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -401,19 +431,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -424,6 +445,34 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -762,39 +811,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075AA31E-6108-44F3-8364-BAB4120DCED6}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="73" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
+    <col min="2" max="2" width="73" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="63.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="26.25">
       <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="42.75">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -802,23 +851,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="213.75">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="42.75">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="57">
       <c r="A7">
         <v>2</v>
       </c>
@@ -826,425 +875,478 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="57">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="42.75">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="57">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.5">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="42.75">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="199.5">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
+    <row r="17" spans="1:4">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="26.25">
+      <c r="B18" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="185.25">
       <c r="A19">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="142.5">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="42.75">
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="26.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" ht="165">
+      <c r="A24" s="7">
+        <v>5</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" ht="15">
+      <c r="A25" s="7">
+        <v>2</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B23" s="3" t="s">
+      <c r="C25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" ht="30">
+      <c r="A26" s="7">
+        <v>1</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" s="7">
+        <v>1</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" ht="30">
+      <c r="A28" s="7">
+        <v>1</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="B29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" ht="135">
+      <c r="A30" s="7">
         <v>5</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
+      <c r="A31" s="7">
+        <v>1</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" ht="105">
+      <c r="A32" s="7">
+        <v>3</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" ht="210">
+      <c r="A33" s="7">
+        <v>5</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C33" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="45">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" ht="45">
+      <c r="A35" s="7"/>
+      <c r="B35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" ht="26.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" ht="150">
+      <c r="A37" s="7">
+        <v>4</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C37" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" ht="60">
+      <c r="A38" s="7"/>
+      <c r="B38" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" ht="26.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" ht="30">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C40" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>3</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B36" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" ht="45">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" ht="45">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B39" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" ht="15">
+      <c r="A43" s="7"/>
+      <c r="B43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" ht="45">
+      <c r="A44" s="7"/>
+      <c r="B44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" ht="30">
+      <c r="A45" s="7"/>
+      <c r="B45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" ht="30">
+      <c r="A46" s="7"/>
+      <c r="B46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" ht="30">
+      <c r="A47" s="7"/>
+      <c r="B47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="5" t="s">
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" ht="15">
+      <c r="A48" s="7"/>
+      <c r="B48" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="C48" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" ht="30">
+      <c r="A49" s="7"/>
+      <c r="B49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" ht="26.25">
+      <c r="B51" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="57">
+      <c r="B52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="28.5">
+      <c r="B53" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="5" t="s">
+      <c r="C53" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+    <row r="55" spans="1:4" ht="26.25">
+      <c r="B55" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="28.5">
+      <c r="B56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B51" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="4" t="s">
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C57" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B55" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B59" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>35</v>
+    <row r="59" spans="1:4" ht="26.25">
+      <c r="B59" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1292,8 +1394,10 @@
     <hyperlink ref="B11" r:id="rId41" xr:uid="{8E91CAD1-F93F-4CDE-8BB7-8BFE95F1B7AB}"/>
     <hyperlink ref="B33" r:id="rId42" location="v=onepage&amp;q=Game%20Development%20TOols&amp;f=false" xr:uid="{EE0C85CB-CD28-44F7-9813-7087C587AF3B}"/>
     <hyperlink ref="B32" r:id="rId43" xr:uid="{556A3CA7-8C3F-4F44-B132-2340823AD1C1}"/>
+    <hyperlink ref="B35" r:id="rId44" display="https://eprints.bournemouth.ac.uk/24322/1/FP8GEA.pdf" xr:uid="{0602B3F2-75B6-4D9C-A586-4D861FC24084}"/>
+    <hyperlink ref="D33" r:id="rId45" xr:uid="{C2A0A283-6BF2-4585-92F0-4C1B6D8E15ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId44"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId46"/>
 </worksheet>
 </file>
--- a/Disertation Bibliography .xlsx
+++ b/Disertation Bibliography .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d019386m\Documents\GitHub\Disertation_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463A818E-5431-484D-8B17-482ADD30A729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEC33B1-DF68-49BD-98FB-F3A5F17450DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA9A4906-27B9-443F-ABF8-51DF8D6D4076}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>Accessibility/usability</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>https://ieeexplore.ieee.org/document/10336281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://citeseerx.ist.psu.edu/document?repid=rep1&amp;type=pdf&amp;doi=5961c577478f21707dad53905362e0ec4e6ec644 </t>
   </si>
   <si>
     <t>Testing</t>
@@ -247,9 +244,6 @@
     <t>Realistic and Textured Terrain Generation using GANs</t>
   </si>
   <si>
-    <t>Algorithms and Approaches for Procedural Terrain Generation - A Brief Review of Current Techniques</t>
-  </si>
-  <si>
     <t>A Survey of Procedural Content Generation Techniques Suitable to Game Development</t>
   </si>
   <si>
@@ -353,12 +347,23 @@
     <t xml:space="preserve">Video Game Development in a Rush: A Survey of the Global Game Jam Participants
 The survey determined that a majotity had between 1 to 4 years of experience and less than 1 year of experience. We can take from this that the ability and expertise of the developers were not wide and varied, the fact the majority of people reported positions in software development and in groups the majority of users reported being programmers, this leaves a shortage of ability in the art, modeling and sound fields. supports the existance of a terrain generation and modeling tool as if no one in particular has experience in modeling software or terrain creation a tool allows them to produce one without the time sync of learning a new skill set. </t>
   </si>
+  <si>
+    <t xml:space="preserve">Realtime Procedural Terrain Generation
+This paper provides an overview of methods for synthesis of eroded terrain for use in computer games and aims to propose a new faster algorithm which meets a expectation of usability in games. Aspects to consider when creatin procedural terrain, Base terrain generation, Thermal errosion, Hydraulic errosion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithms and Approaches for Procedural Terrain Generation - A Brief Review of Current Techniques
+Goes into detail about some generative techniques relating to noise and erosion, good practices for optimising them and specifies some of the features/qualities of different noise algorithms such as speed quality and memory requirements. </t>
+  </si>
+  <si>
+    <t>it also has references to papers that I intend to look through.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -473,6 +478,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -809,27 +817,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075AA31E-6108-44F3-8364-BAB4120DCED6}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="73" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="63.875" customWidth="1"/>
+    <col min="3" max="3" width="68.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="63.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="26.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>0</v>
@@ -838,12 +846,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="42.75">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -851,7 +859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="213.75">
+    <row r="5" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -859,15 +867,15 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="42.75">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="57">
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -875,7 +883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="57">
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -883,10 +891,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="42.75">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -894,10 +902,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="57">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -905,10 +913,10 @@
         <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -916,10 +924,10 @@
         <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="42.75">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -927,53 +935,53 @@
         <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="199.5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
       <c r="B15" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="26.25">
+    <row r="18" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="185.25">
+    <row r="19" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -981,11 +989,11 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" ht="142.5">
+    <row r="20" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -993,21 +1001,21 @@
         <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="42.75">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="26.25">
+    <row r="23" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="13" t="s">
         <v>2</v>
@@ -1015,31 +1023,31 @@
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" ht="165">
+    <row r="24" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>5</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>2</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" ht="30">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>1</v>
       </c>
@@ -1047,117 +1055,117 @@
         <v>13</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" ht="15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>1</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" ht="30">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>1</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>2</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:4" ht="135">
+    <row r="30" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>5</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>1</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:4" ht="105">
+    <row r="32" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>3</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:4" ht="210">
+    <row r="33" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>5</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" ht="45">
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" ht="26.25">
+    <row r="36" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="13" t="s">
         <v>3</v>
@@ -1165,27 +1173,27 @@
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:4" ht="150">
+    <row r="37" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>4</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:4" ht="60">
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:4" ht="26.25">
+    <row r="39" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="13" t="s">
         <v>4</v>
@@ -1193,160 +1201,168 @@
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:4" ht="30">
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="1:4" ht="45">
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" ht="45">
-      <c r="A42" s="7"/>
+    <row r="42" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>4</v>
+      </c>
       <c r="B42" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:4" ht="15">
-      <c r="A43" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>5</v>
+      </c>
       <c r="B43" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="1:4" ht="45">
-      <c r="A44" s="7"/>
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>4</v>
+      </c>
       <c r="B44" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="1:4" ht="30">
-      <c r="A45" s="7"/>
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>4</v>
+      </c>
       <c r="B45" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:4" ht="30">
-      <c r="A46" s="7"/>
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>2</v>
+      </c>
       <c r="B46" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="1:4" ht="30">
-      <c r="A47" s="7"/>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>2</v>
+      </c>
       <c r="B47" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>3</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" spans="1:4" ht="15">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8" t="s">
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B50" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C52" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" ht="30">
-      <c r="A49" s="7"/>
-      <c r="B49" s="8" t="s">
+    </row>
+    <row r="54" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B54" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" ht="26.25">
-      <c r="B51" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="57">
-      <c r="B52" s="1" t="s">
+    </row>
+    <row r="55" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B58" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="28.5">
-      <c r="B53" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="26.25">
-      <c r="B55" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="28.5">
-      <c r="B56" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="B57" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="26.25">
-      <c r="B59" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="B60" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>34</v>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1378,26 +1394,25 @@
     <hyperlink ref="B9" r:id="rId25" xr:uid="{90D3DAEC-C1D3-4652-B6BC-862C8772E69F}"/>
     <hyperlink ref="B10" r:id="rId26" xr:uid="{8C9A0D6C-715A-420E-B144-FDEEB374B704}"/>
     <hyperlink ref="B48" r:id="rId27" xr:uid="{8DB48E24-302D-4FF0-89FD-B3B72B9D3A47}"/>
-    <hyperlink ref="B49" r:id="rId28" xr:uid="{C6350575-6165-435A-AEFA-688801B93533}"/>
-    <hyperlink ref="B56" r:id="rId29" xr:uid="{A1AE575D-4F0B-4646-848F-E8A0C6E7EA87}"/>
-    <hyperlink ref="B30" r:id="rId30" xr:uid="{C8932CC3-66BD-47AA-8E19-216DE695EAD4}"/>
-    <hyperlink ref="B57" r:id="rId31" xr:uid="{503B1E9C-298C-4F4F-AB47-1FCD2FF1BBD8}"/>
-    <hyperlink ref="B52" r:id="rId32" xr:uid="{A10B9E02-A70E-42DE-AC79-9E4730C31746}"/>
-    <hyperlink ref="B13" r:id="rId33" xr:uid="{834F2E38-8437-4D35-BD8D-92033B035648}"/>
-    <hyperlink ref="B14" r:id="rId34" xr:uid="{47E473B3-2415-4842-85D9-C68B8A15A8F5}"/>
-    <hyperlink ref="B31" r:id="rId35" xr:uid="{8B7672EC-4885-4C51-BA36-0566628DA879}"/>
-    <hyperlink ref="B53" r:id="rId36" xr:uid="{5F731E9E-A167-4BA9-8B8B-050D0E8DE532}"/>
-    <hyperlink ref="B12" r:id="rId37" xr:uid="{F6A3EBC5-6B79-4A46-91F2-561876BE640B}"/>
-    <hyperlink ref="B15" r:id="rId38" display="https://uxpajournal.org/" xr:uid="{95A4A98E-A5EF-442E-946D-B3BB705C36C8}"/>
-    <hyperlink ref="B16" r:id="rId39" display="https://uxpajournal.org/wp-content/uploads/sites/7/pdf/JUS_Brooke_February_2013.pdf" xr:uid="{FB8D159B-E59E-4E70-99A4-F77B81B49973}"/>
-    <hyperlink ref="B60" r:id="rId40" display="https://www.researchgate.net/publication/322348620_Measuring_Perceived_Usability_The_CSUQ_SUS_and_UMUX" xr:uid="{DB11859D-B313-4DA7-A495-E3BF73FDFE69}"/>
-    <hyperlink ref="B11" r:id="rId41" xr:uid="{8E91CAD1-F93F-4CDE-8BB7-8BFE95F1B7AB}"/>
-    <hyperlink ref="B33" r:id="rId42" location="v=onepage&amp;q=Game%20Development%20TOols&amp;f=false" xr:uid="{EE0C85CB-CD28-44F7-9813-7087C587AF3B}"/>
-    <hyperlink ref="B32" r:id="rId43" xr:uid="{556A3CA7-8C3F-4F44-B132-2340823AD1C1}"/>
-    <hyperlink ref="B35" r:id="rId44" display="https://eprints.bournemouth.ac.uk/24322/1/FP8GEA.pdf" xr:uid="{0602B3F2-75B6-4D9C-A586-4D861FC24084}"/>
-    <hyperlink ref="D33" r:id="rId45" xr:uid="{C2A0A283-6BF2-4585-92F0-4C1B6D8E15ED}"/>
+    <hyperlink ref="B55" r:id="rId28" xr:uid="{A1AE575D-4F0B-4646-848F-E8A0C6E7EA87}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{C8932CC3-66BD-47AA-8E19-216DE695EAD4}"/>
+    <hyperlink ref="B56" r:id="rId30" xr:uid="{503B1E9C-298C-4F4F-AB47-1FCD2FF1BBD8}"/>
+    <hyperlink ref="B51" r:id="rId31" xr:uid="{A10B9E02-A70E-42DE-AC79-9E4730C31746}"/>
+    <hyperlink ref="B13" r:id="rId32" xr:uid="{834F2E38-8437-4D35-BD8D-92033B035648}"/>
+    <hyperlink ref="B14" r:id="rId33" xr:uid="{47E473B3-2415-4842-85D9-C68B8A15A8F5}"/>
+    <hyperlink ref="B31" r:id="rId34" xr:uid="{8B7672EC-4885-4C51-BA36-0566628DA879}"/>
+    <hyperlink ref="B52" r:id="rId35" xr:uid="{5F731E9E-A167-4BA9-8B8B-050D0E8DE532}"/>
+    <hyperlink ref="B12" r:id="rId36" xr:uid="{F6A3EBC5-6B79-4A46-91F2-561876BE640B}"/>
+    <hyperlink ref="B15" r:id="rId37" display="https://uxpajournal.org/" xr:uid="{95A4A98E-A5EF-442E-946D-B3BB705C36C8}"/>
+    <hyperlink ref="B16" r:id="rId38" display="https://uxpajournal.org/wp-content/uploads/sites/7/pdf/JUS_Brooke_February_2013.pdf" xr:uid="{FB8D159B-E59E-4E70-99A4-F77B81B49973}"/>
+    <hyperlink ref="B59" r:id="rId39" display="https://www.researchgate.net/publication/322348620_Measuring_Perceived_Usability_The_CSUQ_SUS_and_UMUX" xr:uid="{DB11859D-B313-4DA7-A495-E3BF73FDFE69}"/>
+    <hyperlink ref="B11" r:id="rId40" xr:uid="{8E91CAD1-F93F-4CDE-8BB7-8BFE95F1B7AB}"/>
+    <hyperlink ref="B33" r:id="rId41" location="v=onepage&amp;q=Game%20Development%20TOols&amp;f=false" xr:uid="{EE0C85CB-CD28-44F7-9813-7087C587AF3B}"/>
+    <hyperlink ref="B32" r:id="rId42" xr:uid="{556A3CA7-8C3F-4F44-B132-2340823AD1C1}"/>
+    <hyperlink ref="B35" r:id="rId43" display="https://eprints.bournemouth.ac.uk/24322/1/FP8GEA.pdf" xr:uid="{0602B3F2-75B6-4D9C-A586-4D861FC24084}"/>
+    <hyperlink ref="D33" r:id="rId44" xr:uid="{C2A0A283-6BF2-4585-92F0-4C1B6D8E15ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId45"/>
 </worksheet>
 </file>
--- a/Disertation Bibliography .xlsx
+++ b/Disertation Bibliography .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d019386m\Documents\GitHub\Disertation_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camed\OneDrive\Documents\GitHub\Disertation_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEC33B1-DF68-49BD-98FB-F3A5F17450DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09497B44-416F-4F22-81D5-4FD802DA37FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA9A4906-27B9-443F-ABF8-51DF8D6D4076}"/>
   </bookViews>
@@ -244,9 +244,6 @@
     <t>Realistic and Textured Terrain Generation using GANs</t>
   </si>
   <si>
-    <t>A Survey of Procedural Content Generation Techniques Suitable to Game Development</t>
-  </si>
-  <si>
     <t>The Usage of PCG Techniques Within Different Game Genres</t>
   </si>
   <si>
@@ -356,7 +353,11 @@
 Goes into detail about some generative techniques relating to noise and erosion, good practices for optimising them and specifies some of the features/qualities of different noise algorithms such as speed quality and memory requirements. </t>
   </si>
   <si>
-    <t>it also has references to papers that I intend to look through.</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Survey of Procedural Content Generation Techniques Suitable to Game Development
+</t>
   </si>
 </sst>
 </file>
@@ -819,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075AA31E-6108-44F3-8364-BAB4120DCED6}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -935,7 +936,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="210" x14ac:dyDescent="0.25">
@@ -943,10 +944,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1001,7 +1002,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1031,7 +1032,7 @@
         <v>46</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="7"/>
     </row>
@@ -1103,10 +1104,10 @@
         <v>58</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1129,7 +1130,7 @@
         <v>51</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D32" s="7"/>
     </row>
@@ -1141,16 +1142,16 @@
         <v>50</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
@@ -1158,10 +1159,10 @@
     <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="D35" s="7"/>
     </row>
@@ -1181,14 +1182,14 @@
         <v>61</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
@@ -1229,10 +1230,10 @@
         <v>17</v>
       </c>
       <c r="C42" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -1243,11 +1244,11 @@
         <v>18</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>4</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>19</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D44" s="7"/>
     </row>
@@ -1267,7 +1268,7 @@
         <v>20</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D45" s="7"/>
     </row>
@@ -1279,7 +1280,7 @@
         <v>21</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D46" s="7"/>
     </row>
@@ -1291,7 +1292,7 @@
         <v>22</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D47" s="7"/>
     </row>
@@ -1300,10 +1301,10 @@
         <v>3</v>
       </c>
       <c r="B48" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="D48" s="7"/>
     </row>
@@ -1320,15 +1321,15 @@
         <v>29</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
@@ -1338,18 +1339,18 @@
     </row>
     <row r="55" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">

--- a/Disertation Bibliography .xlsx
+++ b/Disertation Bibliography .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camed\OneDrive\Documents\GitHub\Disertation_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09497B44-416F-4F22-81D5-4FD802DA37FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DFA8F2-B2A2-481D-AFED-3ADAC22E9765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA9A4906-27B9-443F-ABF8-51DF8D6D4076}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{DA9A4906-27B9-443F-ABF8-51DF8D6D4076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
   <si>
     <t>Accessibility/usability</t>
   </si>
@@ -359,12 +359,15 @@
     <t xml:space="preserve">A Survey of Procedural Content Generation Techniques Suitable to Game Development
 </t>
   </si>
+  <si>
+    <t>Rohan Patel, Pedro Breton, Catherine M. Baker, Yasmine N. El-Glaly, and Kristen Shinohara. 2020. Why Software is Not Accessible: Technology Professionals' Perspectives and Challenges. In Extended Abstracts of the 2020 CHI Conference on Human Factors in Computing Systems (CHI EA '20). Association for Computing Machinery, New York, NY, USA, 1–9. https://doi-org.ezproxy.staffs.ac.uk/10.1145/3334480.3383103</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +418,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -437,7 +445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -445,10 +453,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -459,9 +463,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -480,8 +481,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -820,39 +833,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075AA31E-6108-44F3-8364-BAB4120DCED6}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="73" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="68.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
+    <col min="4" max="4" width="63.85546875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="26.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="45">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -860,7 +873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="240">
       <c r="A5">
         <v>4</v>
       </c>
@@ -870,13 +883,16 @@
       <c r="C5" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D5" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="60">
       <c r="A7">
         <v>2</v>
       </c>
@@ -884,7 +900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="60">
       <c r="A8">
         <v>4</v>
       </c>
@@ -895,7 +911,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="45">
       <c r="A9">
         <v>2</v>
       </c>
@@ -906,7 +922,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="60">
       <c r="A10">
         <v>3</v>
       </c>
@@ -917,7 +933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30">
       <c r="A11">
         <v>2</v>
       </c>
@@ -928,7 +944,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="45">
       <c r="A12">
         <v>2</v>
       </c>
@@ -939,7 +955,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="210">
       <c r="A13">
         <v>5</v>
       </c>
@@ -950,7 +966,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -961,28 +977,28 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+    <row r="16" spans="1:4">
+      <c r="B16" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+    <row r="18" spans="1:4" ht="26.25">
+      <c r="B18" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="195">
       <c r="A19">
         <v>4</v>
       </c>
@@ -992,9 +1008,9 @@
       <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="165">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1005,7 +1021,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="45">
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1013,310 +1029,310 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="1:4" ht="26.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="C23" s="4"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:4" ht="180">
+      <c r="A24" s="5">
         <v>5</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5">
         <v>2</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:4" ht="30">
+      <c r="A26" s="5">
         <v>1</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5">
         <v>1</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" ht="30">
+      <c r="A28" s="5">
         <v>1</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5">
         <v>2</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" ht="165">
+      <c r="A30" s="5">
         <v>5</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+    <row r="31" spans="1:4">
+      <c r="A31" s="5">
         <v>1</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" ht="105">
+      <c r="A32" s="5">
         <v>3</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" ht="240" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" ht="240">
+      <c r="A33" s="5">
         <v>5</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8" t="s">
+    <row r="34" spans="1:4" ht="45">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="14" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="1:4" ht="45">
+      <c r="A35" s="5"/>
+      <c r="B35" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="13" t="s">
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="1:4" ht="26.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="C36" s="4"/>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:4" ht="195">
+      <c r="A37" s="5">
         <v>4</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="15" t="s">
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:4" ht="60">
+      <c r="A38" s="5"/>
+      <c r="B38" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="13" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:4" ht="26.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="1:4" ht="30">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8" t="s">
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:4" ht="45">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="1:4" ht="105">
+      <c r="A42" s="5">
         <v>4</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+    <row r="43" spans="1:4" ht="105">
+      <c r="A43" s="5">
         <v>5</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:4" ht="60">
+      <c r="A44" s="5">
         <v>4</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="1:4" ht="30">
+      <c r="A45" s="5">
         <v>4</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="1:4" ht="30">
+      <c r="A46" s="5">
         <v>2</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="1:4" ht="30">
+      <c r="A47" s="5">
         <v>2</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="5">
         <v>3</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="15"/>
+    </row>
+    <row r="49" spans="2:3">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B50" s="11" t="s">
+    <row r="50" spans="2:3" ht="26.25">
+      <c r="B50" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" ht="60">
       <c r="B51" s="1" t="s">
         <v>29</v>
       </c>
@@ -1324,7 +1340,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" ht="30">
       <c r="B52" s="1" t="s">
         <v>70</v>
       </c>
@@ -1332,12 +1348,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B54" s="11" t="s">
+    <row r="54" spans="2:3" ht="26.25">
+      <c r="B54" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" ht="30">
       <c r="B55" s="1" t="s">
         <v>73</v>
       </c>
@@ -1345,7 +1361,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3">
       <c r="B56" s="1" t="s">
         <v>74</v>
       </c>
@@ -1353,13 +1369,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B58" s="11" t="s">
+    <row r="58" spans="2:3" ht="26.25">
+      <c r="B58" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="12" t="s">
+    <row r="59" spans="2:3">
+      <c r="B59" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -1370,7 +1386,7 @@
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="https://ieeexplore.ieee.org/document/10336281" xr:uid="{35D3E676-0C76-4B2E-8F3F-3917F6D8F17A}"/>
     <hyperlink ref="B3" r:id="rId2" display="https://learning.oreilly.com/library/view/engineering-software-for/9780735642102/?ar%2F%3Femail=%5Eu" xr:uid="{87E58309-A377-4EBE-A41A-4DD19141963A}"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://dl-acm-org.ezproxy.staffs.ac.uk/doi/abs/10.1145/3334480.3383103" xr:uid="{5B2CFEA9-03E3-4986-BDA0-D0D30F8FB92B}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{5B2CFEA9-03E3-4986-BDA0-D0D30F8FB92B}"/>
     <hyperlink ref="B6" r:id="rId4" display="https://learning.oreilly.com/library/view/developing-inclusive-mobile/9781484258149/?ar%2F%3Femail=%5Eu" xr:uid="{8ABB5587-0C82-4894-A23C-57FB81D27579}"/>
     <hyperlink ref="B7" r:id="rId5" display="https://www-sciencedirect-com.ezproxy.staffs.ac.uk/science/article/pii/S0953543805000597" xr:uid="{BFA735BF-073A-44A1-A88A-7366C1EDE5B3}"/>
     <hyperlink ref="B8" r:id="rId6" display="https://hci.ece.upatras.gr/wp-content/uploads/publications/2001(C44)An Introduction to Software Usability.pdf" xr:uid="{F1F03FF7-704E-4E23-B702-5BD20485DCF3}"/>

--- a/Disertation Bibliography .xlsx
+++ b/Disertation Bibliography .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camed\OneDrive\Documents\GitHub\Disertation_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DFA8F2-B2A2-481D-AFED-3ADAC22E9765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CF4E6C-EE2A-4F28-80A8-FBEF544CB825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{DA9A4906-27B9-443F-ABF8-51DF8D6D4076}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>Accessibility/usability</t>
   </si>
@@ -362,12 +362,41 @@
   <si>
     <t>Rohan Patel, Pedro Breton, Catherine M. Baker, Yasmine N. El-Glaly, and Kristen Shinohara. 2020. Why Software is Not Accessible: Technology Professionals' Perspectives and Challenges. In Extended Abstracts of the 2020 CHI Conference on Human Factors in Computing Systems (CHI EA '20). Association for Computing Machinery, New York, NY, USA, 1–9. https://doi-org.ezproxy.staffs.ac.uk/10.1145/3334480.3383103</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T. Weber, A. Zoitl and H. Hußmann, "Usability of Development Tools: A CASE-Study," </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2019 ACM/IEEE 22nd International Conference on Model Driven Engineering Languages and Systems Companion (MODELS-C)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Munich, Germany, 2019, pp. 228-235, doi: 10.1109/MODELS-C.2019.00037.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://badreddin.com/wp-content/uploads/2012/11/c2m2010_survey.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,13 +452,27 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -445,7 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -495,6 +538,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -831,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075AA31E-6108-44F3-8364-BAB4120DCED6}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -877,7 +923,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -964,6 +1010,9 @@
       </c>
       <c r="C13" s="2" t="s">
         <v>87</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1380,6 +1429,11 @@
       </c>
       <c r="C59" s="2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1428,8 +1482,9 @@
     <hyperlink ref="B32" r:id="rId42" xr:uid="{556A3CA7-8C3F-4F44-B132-2340823AD1C1}"/>
     <hyperlink ref="B35" r:id="rId43" display="https://eprints.bournemouth.ac.uk/24322/1/FP8GEA.pdf" xr:uid="{0602B3F2-75B6-4D9C-A586-4D861FC24084}"/>
     <hyperlink ref="D33" r:id="rId44" xr:uid="{C2A0A283-6BF2-4585-92F0-4C1B6D8E15ED}"/>
+    <hyperlink ref="B61" r:id="rId45" xr:uid="{25B4955B-4B01-4FBF-8C0A-A439F857C44B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId45"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId46"/>
 </worksheet>
 </file>
--- a/Disertation Bibliography .xlsx
+++ b/Disertation Bibliography .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camed\OneDrive\Documents\GitHub\Disertation_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CF4E6C-EE2A-4F28-80A8-FBEF544CB825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6E5518-BC20-4F45-870F-EAA472F38BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{DA9A4906-27B9-443F-ABF8-51DF8D6D4076}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DA9A4906-27B9-443F-ABF8-51DF8D6D4076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075AA31E-6108-44F3-8364-BAB4120DCED6}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -972,7 +972,7 @@
       <c r="A10">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1005,7 +1005,7 @@
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="18" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="2" t="s">

--- a/Disertation Bibliography .xlsx
+++ b/Disertation Bibliography .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camed\OneDrive\Documents\GitHub\Disertation_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6E5518-BC20-4F45-870F-EAA472F38BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B527FFF-9F8A-40FB-9575-AADFAFF171E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DA9A4906-27B9-443F-ABF8-51DF8D6D4076}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{DA9A4906-27B9-443F-ABF8-51DF8D6D4076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>Accessibility/usability</t>
   </si>
@@ -390,6 +390,15 @@
   </si>
   <si>
     <t>https://badreddin.com/wp-content/uploads/2012/11/c2m2010_survey.pdf</t>
+  </si>
+  <si>
+    <t>Determining what individual SUS scores mean: adding an adjective rating scale: Journal of Usability Studies: Vol 4, No 3</t>
+  </si>
+  <si>
+    <t>https://uxpajournal.org/wp-content/uploads/sites/7/pdf/JUS_Brooke_February_2013.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uxpsychology.substack.com/p/standardized-usability-questionnaires </t>
   </si>
 </sst>
 </file>
@@ -488,7 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -542,6 +551,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -877,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075AA31E-6108-44F3-8364-BAB4120DCED6}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -950,7 +960,7 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1161,7 +1171,7 @@
       </c>
       <c r="D29" s="15"/>
     </row>
-    <row r="30" spans="1:4" ht="165">
+    <row r="30" spans="1:4" ht="150">
       <c r="A30" s="5">
         <v>5</v>
       </c>
@@ -1434,6 +1444,21 @@
     <row r="61" spans="2:3">
       <c r="B61" s="1" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" ht="30">
+      <c r="B64" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1483,8 +1508,11 @@
     <hyperlink ref="B35" r:id="rId43" display="https://eprints.bournemouth.ac.uk/24322/1/FP8GEA.pdf" xr:uid="{0602B3F2-75B6-4D9C-A586-4D861FC24084}"/>
     <hyperlink ref="D33" r:id="rId44" xr:uid="{C2A0A283-6BF2-4585-92F0-4C1B6D8E15ED}"/>
     <hyperlink ref="B61" r:id="rId45" xr:uid="{25B4955B-4B01-4FBF-8C0A-A439F857C44B}"/>
+    <hyperlink ref="B65" r:id="rId46" display="https://dl.acm.org/doi/10.5555/2835587.2835589" xr:uid="{8E73B810-3783-44BA-ACD9-21C96238794A}"/>
+    <hyperlink ref="B64" r:id="rId47" xr:uid="{47D8074D-C739-4E97-9E34-E2197ECB3E14}"/>
+    <hyperlink ref="B63" r:id="rId48" xr:uid="{B41FBF83-E0A0-4853-9A70-D6D65A6CE591}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId49"/>
 </worksheet>
 </file>
--- a/Disertation Bibliography .xlsx
+++ b/Disertation Bibliography .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camed\OneDrive\Documents\GitHub\Disertation_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d019386m\Documents\GitHub\Disertation_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B527FFF-9F8A-40FB-9575-AADFAFF171E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAB40A5-25D1-4C91-A174-CBFCFDE10802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{DA9A4906-27B9-443F-ABF8-51DF8D6D4076}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA9A4906-27B9-443F-ABF8-51DF8D6D4076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -890,7 +890,7 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D29" s="15"/>
     </row>
-    <row r="30" spans="1:4" ht="150">
+    <row r="30" spans="1:4" ht="165">
       <c r="A30" s="5">
         <v>5</v>
       </c>

--- a/Disertation Bibliography .xlsx
+++ b/Disertation Bibliography .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d019386m\Documents\GitHub\Disertation_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camed\OneDrive\Documents\GitHub\Disertation_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAB40A5-25D1-4C91-A174-CBFCFDE10802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E268A00D-B71D-475C-9579-9828D644778E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA9A4906-27B9-443F-ABF8-51DF8D6D4076}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{DA9A4906-27B9-443F-ABF8-51DF8D6D4076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075AA31E-6108-44F3-8364-BAB4120DCED6}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1061,7 +1061,7 @@
       <c r="A19">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1452,7 +1452,7 @@
       </c>
     </row>
     <row r="64" spans="2:3" ht="30">
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="18" t="s">
         <v>101</v>
       </c>
     </row>

--- a/Disertation Bibliography .xlsx
+++ b/Disertation Bibliography .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camed\OneDrive\Documents\GitHub\Disertation_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E268A00D-B71D-475C-9579-9828D644778E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3260C56E-F777-4C45-8E63-7A30D254A94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{DA9A4906-27B9-443F-ABF8-51DF8D6D4076}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="624" windowWidth="23040" windowHeight="11616" xr2:uid="{DA9A4906-27B9-443F-ABF8-51DF8D6D4076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>Accessibility/usability</t>
   </si>
@@ -399,6 +399,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://uxpsychology.substack.com/p/standardized-usability-questionnaires </t>
+  </si>
+  <si>
+    <t>Codeless3D: Design and Usability Evaluation of a Low-Code Tool for 3D Game Generation</t>
+  </si>
+  <si>
+    <t>Codeless3D: Design and Usability Evaluation of a Low-Code Tool for 3D Game Generation | IEEE Journals &amp; Magazine | IEEE Xplore</t>
   </si>
 </sst>
 </file>
@@ -470,7 +476,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +486,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -552,6 +564,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -887,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075AA31E-6108-44F3-8364-BAB4120DCED6}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1099,263 +1119,261 @@
       <c r="C23" s="4"/>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="1:4" ht="180">
-      <c r="A24" s="5">
+    <row r="24" spans="1:4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4" ht="180">
+      <c r="A25" s="5">
         <v>5</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5">
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5">
         <v>2</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="1:4" ht="30">
-      <c r="A26" s="5">
-        <v>1</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="D26" s="15"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="30">
       <c r="A27" s="5">
         <v>1</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D27" s="15"/>
     </row>
-    <row r="28" spans="1:4" ht="30">
+    <row r="28" spans="1:4">
       <c r="A28" s="5">
         <v>1</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" ht="30">
+      <c r="A29" s="5">
+        <v>1</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="5">
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5">
         <v>2</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:4" ht="165">
-      <c r="A30" s="5">
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" ht="165">
+      <c r="A31" s="5">
         <v>5</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B31" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="5">
+    <row r="32" spans="1:4">
+      <c r="A32" s="5">
         <v>1</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" ht="105">
-      <c r="A32" s="5">
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" ht="105">
+      <c r="A33" s="5">
         <v>3</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" ht="240">
-      <c r="A33" s="5">
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" ht="240">
+      <c r="A34" s="5">
         <v>5</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D34" s="16" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="45">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:4" ht="45">
       <c r="A35" s="5"/>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="1:4" ht="45">
+      <c r="A36" s="5"/>
+      <c r="B36" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" ht="26.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="10" t="s">
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:4" ht="26.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" ht="195">
-      <c r="A37" s="5">
+      <c r="C37" s="4"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:4" ht="195">
+      <c r="A38" s="5">
         <v>4</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="1:4" ht="60">
-      <c r="A38" s="5"/>
-      <c r="B38" s="12" t="s">
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:4" ht="60">
+      <c r="A39" s="5"/>
+      <c r="B39" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="15"/>
-    </row>
-    <row r="39" spans="1:4" ht="26.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="10" t="s">
-        <v>4</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="15"/>
     </row>
-    <row r="40" spans="1:4" ht="30">
+    <row r="40" spans="1:4" ht="26.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B40" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4"/>
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="1:4" ht="45">
+    <row r="41" spans="1:4" ht="30">
       <c r="A41" s="5"/>
       <c r="B41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="1:4" ht="45">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="15"/>
-    </row>
-    <row r="42" spans="1:4" ht="105">
-      <c r="A42" s="5">
-        <v>4</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>95</v>
-      </c>
+      <c r="D42" s="15"/>
     </row>
     <row r="43" spans="1:4" ht="105">
       <c r="A43" s="5">
+        <v>4</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="105">
+      <c r="A44" s="5">
         <v>5</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="1:4" ht="60">
-      <c r="A44" s="5">
-        <v>4</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="D44" s="15"/>
     </row>
-    <row r="45" spans="1:4" ht="30">
+    <row r="45" spans="1:4" ht="60">
       <c r="A45" s="5">
         <v>4</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D45" s="15"/>
     </row>
     <row r="46" spans="1:4" ht="30">
       <c r="A46" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D46" s="15"/>
     </row>
@@ -1364,100 +1382,112 @@
         <v>2</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="1:4" ht="30">
+      <c r="A48" s="5">
+        <v>2</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="15"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="5">
+      <c r="D48" s="15"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="5">
         <v>3</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="15"/>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:3" ht="26.25">
-      <c r="B50" s="8" t="s">
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" ht="26.25">
+      <c r="B51" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="60">
-      <c r="B51" s="1" t="s">
+    <row r="52" spans="1:4" ht="60">
+      <c r="B52" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="30">
-      <c r="B52" s="1" t="s">
+    <row r="53" spans="1:4" ht="30">
+      <c r="B53" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="26.25">
-      <c r="B54" s="8" t="s">
+    <row r="55" spans="1:4" ht="26.25">
+      <c r="B55" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="2:3" ht="30">
-      <c r="B55" s="1" t="s">
+    <row r="56" spans="1:4" ht="30">
+      <c r="B56" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="1" t="s">
+    <row r="57" spans="1:4">
+      <c r="B57" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="2:3" ht="26.25">
-      <c r="B58" s="8" t="s">
+    <row r="59" spans="1:4" ht="26.25">
+      <c r="B59" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="9" t="s">
+    <row r="60" spans="1:4">
+      <c r="B60" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="1" t="s">
+    <row r="62" spans="1:4">
+      <c r="B62" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="1" t="s">
+    <row r="64" spans="1:4">
+      <c r="B64" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="2:3" ht="30">
-      <c r="B64" s="18" t="s">
+    <row r="65" spans="2:2" ht="30">
+      <c r="B65" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="19" t="s">
+    <row r="66" spans="2:2">
+      <c r="B66" s="19" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1470,49 +1500,50 @@
     <hyperlink ref="B7" r:id="rId5" display="https://www-sciencedirect-com.ezproxy.staffs.ac.uk/science/article/pii/S0953543805000597" xr:uid="{BFA735BF-073A-44A1-A88A-7366C1EDE5B3}"/>
     <hyperlink ref="B8" r:id="rId6" display="https://hci.ece.upatras.gr/wp-content/uploads/publications/2001(C44)An Introduction to Software Usability.pdf" xr:uid="{F1F03FF7-704E-4E23-B702-5BD20485DCF3}"/>
     <hyperlink ref="B19" r:id="rId7" display="https://ruomoplus.lib.uom.gr/handle/8000/1120" xr:uid="{D37A38EE-A294-4513-AC16-8E907121E64B}"/>
-    <hyperlink ref="B24" r:id="rId8" xr:uid="{A370EBCA-1388-4E3C-AEA1-2B1B55BCC5FB}"/>
-    <hyperlink ref="B25" r:id="rId9" xr:uid="{69E12D8E-BD5B-443C-8B6A-E432823569A5}"/>
-    <hyperlink ref="B26" r:id="rId10" display="https://www.sbgames.org/sbgames2013/proceedings/artedesign/33-dt-paper.pdf" xr:uid="{695767F3-D37F-46BA-9A46-0C8DCEF53D4C}"/>
-    <hyperlink ref="B27" r:id="rId11" xr:uid="{12958902-FC4C-4CA1-8FA9-F8A09651D205}"/>
-    <hyperlink ref="B28" r:id="rId12" xr:uid="{E9F4BCD7-33AD-47F9-8E08-210A23B20FE4}"/>
-    <hyperlink ref="B29" r:id="rId13" xr:uid="{90E6B17B-3982-48BB-ABAF-D03EA252E83A}"/>
+    <hyperlink ref="B25" r:id="rId8" xr:uid="{A370EBCA-1388-4E3C-AEA1-2B1B55BCC5FB}"/>
+    <hyperlink ref="B26" r:id="rId9" xr:uid="{69E12D8E-BD5B-443C-8B6A-E432823569A5}"/>
+    <hyperlink ref="B27" r:id="rId10" display="https://www.sbgames.org/sbgames2013/proceedings/artedesign/33-dt-paper.pdf" xr:uid="{695767F3-D37F-46BA-9A46-0C8DCEF53D4C}"/>
+    <hyperlink ref="B28" r:id="rId11" xr:uid="{12958902-FC4C-4CA1-8FA9-F8A09651D205}"/>
+    <hyperlink ref="B29" r:id="rId12" xr:uid="{E9F4BCD7-33AD-47F9-8E08-210A23B20FE4}"/>
+    <hyperlink ref="B30" r:id="rId13" xr:uid="{90E6B17B-3982-48BB-ABAF-D03EA252E83A}"/>
     <hyperlink ref="B20" r:id="rId14" display="https://dl.digra.org/index.php/dl/article/view/1077" xr:uid="{9749C9B7-FF65-47FE-87E9-160641E87809}"/>
-    <hyperlink ref="B37" r:id="rId15" xr:uid="{2539EF7B-9C68-421C-BB9A-6C08B36CCC63}"/>
+    <hyperlink ref="B38" r:id="rId15" xr:uid="{2539EF7B-9C68-421C-BB9A-6C08B36CCC63}"/>
     <hyperlink ref="B21" r:id="rId16" display="https://learning.oreilly.com/library/view/procedural-generation-in/9781484287958/?ar%2F%3Femail=%5Eu" xr:uid="{A96A5B27-4A76-43E8-A670-21685FC08DA7}"/>
-    <hyperlink ref="B40" r:id="rId17" xr:uid="{82C53B98-A1CC-40DE-B253-38D3DC8D3067}"/>
-    <hyperlink ref="B41" r:id="rId18" display="https://dl.acm.org/doi/abs/10.1145/3359998.3369407" xr:uid="{D1981623-F80E-4B37-A061-32A2A41BA51B}"/>
-    <hyperlink ref="B42" r:id="rId19" display="https://ieeexplore.ieee.org/abstract/document/7590336" xr:uid="{F9021CE5-7E82-4CDD-A74D-5D29FCF1E02E}"/>
-    <hyperlink ref="B43" r:id="rId20" display="https://citeseerx.ist.psu.edu/document?repid=rep1&amp;type=pdf&amp;doi=5961c577478f21707dad53905362e0ec4e6ec644" xr:uid="{B583103F-F3DD-482C-8CEF-BB227431B8C9}"/>
-    <hyperlink ref="B44" r:id="rId21" display="https://ieeexplore.ieee.org/abstract/document/6363215" xr:uid="{F992D754-64D8-4508-B135-D0E246087E14}"/>
-    <hyperlink ref="B45" r:id="rId22" display="https://www.diva-portal.org/smash/record.jsf?pid=diva2%3A1604550&amp;dswid=9705" xr:uid="{0BB3B4B0-2917-4FB8-B2BC-4C30E5FA2C65}"/>
-    <hyperlink ref="B46" r:id="rId23" display="https://ieeexplore.ieee.org/abstract/document/8863868" xr:uid="{D256FF97-ECF0-4089-BBD7-36496D3139F1}"/>
-    <hyperlink ref="B47" r:id="rId24" display="https://ieeexplore.ieee.org/abstract/document/6915296" xr:uid="{7424D0FC-C4C6-4A7F-B9D8-8A0E0F8087B0}"/>
+    <hyperlink ref="B41" r:id="rId17" xr:uid="{82C53B98-A1CC-40DE-B253-38D3DC8D3067}"/>
+    <hyperlink ref="B42" r:id="rId18" display="https://dl.acm.org/doi/abs/10.1145/3359998.3369407" xr:uid="{D1981623-F80E-4B37-A061-32A2A41BA51B}"/>
+    <hyperlink ref="B43" r:id="rId19" display="https://ieeexplore.ieee.org/abstract/document/7590336" xr:uid="{F9021CE5-7E82-4CDD-A74D-5D29FCF1E02E}"/>
+    <hyperlink ref="B44" r:id="rId20" display="https://citeseerx.ist.psu.edu/document?repid=rep1&amp;type=pdf&amp;doi=5961c577478f21707dad53905362e0ec4e6ec644" xr:uid="{B583103F-F3DD-482C-8CEF-BB227431B8C9}"/>
+    <hyperlink ref="B45" r:id="rId21" display="https://ieeexplore.ieee.org/abstract/document/6363215" xr:uid="{F992D754-64D8-4508-B135-D0E246087E14}"/>
+    <hyperlink ref="B46" r:id="rId22" display="https://www.diva-portal.org/smash/record.jsf?pid=diva2%3A1604550&amp;dswid=9705" xr:uid="{0BB3B4B0-2917-4FB8-B2BC-4C30E5FA2C65}"/>
+    <hyperlink ref="B47" r:id="rId23" display="https://ieeexplore.ieee.org/abstract/document/8863868" xr:uid="{D256FF97-ECF0-4089-BBD7-36496D3139F1}"/>
+    <hyperlink ref="B48" r:id="rId24" display="https://ieeexplore.ieee.org/abstract/document/6915296" xr:uid="{7424D0FC-C4C6-4A7F-B9D8-8A0E0F8087B0}"/>
     <hyperlink ref="B9" r:id="rId25" xr:uid="{90D3DAEC-C1D3-4652-B6BC-862C8772E69F}"/>
     <hyperlink ref="B10" r:id="rId26" xr:uid="{8C9A0D6C-715A-420E-B144-FDEEB374B704}"/>
-    <hyperlink ref="B48" r:id="rId27" xr:uid="{8DB48E24-302D-4FF0-89FD-B3B72B9D3A47}"/>
-    <hyperlink ref="B55" r:id="rId28" xr:uid="{A1AE575D-4F0B-4646-848F-E8A0C6E7EA87}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{C8932CC3-66BD-47AA-8E19-216DE695EAD4}"/>
-    <hyperlink ref="B56" r:id="rId30" xr:uid="{503B1E9C-298C-4F4F-AB47-1FCD2FF1BBD8}"/>
-    <hyperlink ref="B51" r:id="rId31" xr:uid="{A10B9E02-A70E-42DE-AC79-9E4730C31746}"/>
+    <hyperlink ref="B49" r:id="rId27" xr:uid="{8DB48E24-302D-4FF0-89FD-B3B72B9D3A47}"/>
+    <hyperlink ref="B56" r:id="rId28" xr:uid="{A1AE575D-4F0B-4646-848F-E8A0C6E7EA87}"/>
+    <hyperlink ref="B31" r:id="rId29" xr:uid="{C8932CC3-66BD-47AA-8E19-216DE695EAD4}"/>
+    <hyperlink ref="B57" r:id="rId30" xr:uid="{503B1E9C-298C-4F4F-AB47-1FCD2FF1BBD8}"/>
+    <hyperlink ref="B52" r:id="rId31" xr:uid="{A10B9E02-A70E-42DE-AC79-9E4730C31746}"/>
     <hyperlink ref="B13" r:id="rId32" xr:uid="{834F2E38-8437-4D35-BD8D-92033B035648}"/>
     <hyperlink ref="B14" r:id="rId33" xr:uid="{47E473B3-2415-4842-85D9-C68B8A15A8F5}"/>
-    <hyperlink ref="B31" r:id="rId34" xr:uid="{8B7672EC-4885-4C51-BA36-0566628DA879}"/>
-    <hyperlink ref="B52" r:id="rId35" xr:uid="{5F731E9E-A167-4BA9-8B8B-050D0E8DE532}"/>
+    <hyperlink ref="B32" r:id="rId34" xr:uid="{8B7672EC-4885-4C51-BA36-0566628DA879}"/>
+    <hyperlink ref="B53" r:id="rId35" xr:uid="{5F731E9E-A167-4BA9-8B8B-050D0E8DE532}"/>
     <hyperlink ref="B12" r:id="rId36" xr:uid="{F6A3EBC5-6B79-4A46-91F2-561876BE640B}"/>
     <hyperlink ref="B15" r:id="rId37" display="https://uxpajournal.org/" xr:uid="{95A4A98E-A5EF-442E-946D-B3BB705C36C8}"/>
     <hyperlink ref="B16" r:id="rId38" display="https://uxpajournal.org/wp-content/uploads/sites/7/pdf/JUS_Brooke_February_2013.pdf" xr:uid="{FB8D159B-E59E-4E70-99A4-F77B81B49973}"/>
-    <hyperlink ref="B59" r:id="rId39" display="https://www.researchgate.net/publication/322348620_Measuring_Perceived_Usability_The_CSUQ_SUS_and_UMUX" xr:uid="{DB11859D-B313-4DA7-A495-E3BF73FDFE69}"/>
+    <hyperlink ref="B60" r:id="rId39" display="https://www.researchgate.net/publication/322348620_Measuring_Perceived_Usability_The_CSUQ_SUS_and_UMUX" xr:uid="{DB11859D-B313-4DA7-A495-E3BF73FDFE69}"/>
     <hyperlink ref="B11" r:id="rId40" xr:uid="{8E91CAD1-F93F-4CDE-8BB7-8BFE95F1B7AB}"/>
-    <hyperlink ref="B33" r:id="rId41" location="v=onepage&amp;q=Game%20Development%20TOols&amp;f=false" xr:uid="{EE0C85CB-CD28-44F7-9813-7087C587AF3B}"/>
-    <hyperlink ref="B32" r:id="rId42" xr:uid="{556A3CA7-8C3F-4F44-B132-2340823AD1C1}"/>
-    <hyperlink ref="B35" r:id="rId43" display="https://eprints.bournemouth.ac.uk/24322/1/FP8GEA.pdf" xr:uid="{0602B3F2-75B6-4D9C-A586-4D861FC24084}"/>
-    <hyperlink ref="D33" r:id="rId44" xr:uid="{C2A0A283-6BF2-4585-92F0-4C1B6D8E15ED}"/>
-    <hyperlink ref="B61" r:id="rId45" xr:uid="{25B4955B-4B01-4FBF-8C0A-A439F857C44B}"/>
-    <hyperlink ref="B65" r:id="rId46" display="https://dl.acm.org/doi/10.5555/2835587.2835589" xr:uid="{8E73B810-3783-44BA-ACD9-21C96238794A}"/>
-    <hyperlink ref="B64" r:id="rId47" xr:uid="{47D8074D-C739-4E97-9E34-E2197ECB3E14}"/>
-    <hyperlink ref="B63" r:id="rId48" xr:uid="{B41FBF83-E0A0-4853-9A70-D6D65A6CE591}"/>
+    <hyperlink ref="B34" r:id="rId41" location="v=onepage&amp;q=Game%20Development%20TOols&amp;f=false" xr:uid="{EE0C85CB-CD28-44F7-9813-7087C587AF3B}"/>
+    <hyperlink ref="B33" r:id="rId42" xr:uid="{556A3CA7-8C3F-4F44-B132-2340823AD1C1}"/>
+    <hyperlink ref="B36" r:id="rId43" display="https://eprints.bournemouth.ac.uk/24322/1/FP8GEA.pdf" xr:uid="{0602B3F2-75B6-4D9C-A586-4D861FC24084}"/>
+    <hyperlink ref="D34" r:id="rId44" xr:uid="{C2A0A283-6BF2-4585-92F0-4C1B6D8E15ED}"/>
+    <hyperlink ref="B62" r:id="rId45" xr:uid="{25B4955B-4B01-4FBF-8C0A-A439F857C44B}"/>
+    <hyperlink ref="B66" r:id="rId46" display="https://dl.acm.org/doi/10.5555/2835587.2835589" xr:uid="{8E73B810-3783-44BA-ACD9-21C96238794A}"/>
+    <hyperlink ref="B65" r:id="rId47" xr:uid="{47D8074D-C739-4E97-9E34-E2197ECB3E14}"/>
+    <hyperlink ref="B64" r:id="rId48" xr:uid="{B41FBF83-E0A0-4853-9A70-D6D65A6CE591}"/>
+    <hyperlink ref="B24" r:id="rId49" display="https://ieeexplore.ieee.org/document/10591459" xr:uid="{4CD09FB4-EBC5-4752-951A-4CD5D22E9C31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId49"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId50"/>
 </worksheet>
 </file>
--- a/Disertation Bibliography .xlsx
+++ b/Disertation Bibliography .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camed\OneDrive\Documents\GitHub\Disertation_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3260C56E-F777-4C45-8E63-7A30D254A94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B885928-515E-4EC8-A9D7-CD2B2368045D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="624" windowWidth="23040" windowHeight="11616" xr2:uid="{DA9A4906-27B9-443F-ABF8-51DF8D6D4076}"/>
+    <workbookView minimized="1" xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11235" xr2:uid="{DA9A4906-27B9-443F-ABF8-51DF8D6D4076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
   <si>
     <t>Accessibility/usability</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>Codeless3D: Design and Usability Evaluation of a Low-Code Tool for 3D Game Generation | IEEE Journals &amp; Magazine | IEEE Xplore</t>
+  </si>
+  <si>
+    <t>http://gamma.cs.unc.edu/POWERPLANT/papers/ply.pdf</t>
   </si>
 </sst>
 </file>
@@ -909,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075AA31E-6108-44F3-8364-BAB4120DCED6}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1435,6 +1438,11 @@
       </c>
       <c r="C53" s="2" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="26.25">

--- a/Disertation Bibliography .xlsx
+++ b/Disertation Bibliography .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camed\OneDrive\Documents\GitHub\Disertation_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B885928-515E-4EC8-A9D7-CD2B2368045D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A9A7A2-2F19-4CB5-88A1-A36C388FC94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11235" xr2:uid="{DA9A4906-27B9-443F-ABF8-51DF8D6D4076}"/>
+    <workbookView xWindow="-25080" yWindow="520" windowWidth="19200" windowHeight="9970" xr2:uid="{DA9A4906-27B9-443F-ABF8-51DF8D6D4076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t>Accessibility/usability</t>
   </si>
@@ -409,12 +409,24 @@
   <si>
     <t>http://gamma.cs.unc.edu/POWERPLANT/papers/ply.pdf</t>
   </si>
+  <si>
+    <t>New Links</t>
+  </si>
+  <si>
+    <t>Comparative study on software development methodologies</t>
+  </si>
+  <si>
+    <t>https://dbjournal.ro/archive/17/17_4.pdf</t>
+  </si>
+  <si>
+    <t>Despa, M. (2014). Comparative study on software development methodologies. Database Systems Journal, [online] (3). Available at: https://dbjournal.ro/archive/17/17_4.pdf [Accessed 20 Feb. 2021].</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +490,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -512,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -574,6 +594,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -910,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075AA31E-6108-44F3-8364-BAB4120DCED6}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="C58" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1489,14 +1512,30 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="30">
+    <row r="65" spans="2:4" ht="30">
       <c r="B65" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:4">
       <c r="B66" s="19" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="45">
+      <c r="B71" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1550,8 +1589,9 @@
     <hyperlink ref="B65" r:id="rId47" xr:uid="{47D8074D-C739-4E97-9E34-E2197ECB3E14}"/>
     <hyperlink ref="B64" r:id="rId48" xr:uid="{B41FBF83-E0A0-4853-9A70-D6D65A6CE591}"/>
     <hyperlink ref="B24" r:id="rId49" display="https://ieeexplore.ieee.org/document/10591459" xr:uid="{4CD09FB4-EBC5-4752-951A-4CD5D22E9C31}"/>
+    <hyperlink ref="B71" r:id="rId50" xr:uid="{C43B60A9-7F19-43C5-A2D9-64D5012C2F45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId50"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId51"/>
 </worksheet>
 </file>